--- a/artfynd/A 260-2025 artfynd.xlsx
+++ b/artfynd/A 260-2025 artfynd.xlsx
@@ -5688,7 +5688,7 @@
         <v>130684213</v>
       </c>
       <c r="B44" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>130684181</v>
       </c>
       <c r="B45" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>130685358</v>
       </c>
       <c r="B46" t="n">
-        <v>93129</v>
+        <v>93133</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>130684196</v>
       </c>
       <c r="B47" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>130685359</v>
       </c>
       <c r="B48" t="n">
-        <v>93129</v>
+        <v>93133</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>130684476</v>
       </c>
       <c r="B49" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>128089267</v>
       </c>
       <c r="B143" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>130685351</v>
       </c>
       <c r="B203" t="n">
-        <v>91575</v>
+        <v>91579</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>

--- a/artfynd/A 260-2025 artfynd.xlsx
+++ b/artfynd/A 260-2025 artfynd.xlsx
@@ -6012,10 +6012,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130684196</v>
+        <v>130685359</v>
       </c>
       <c r="B47" t="n">
-        <v>57881</v>
+        <v>93133</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6023,40 +6023,46 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Dannemora-Burunge/Tensta, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>652062</v>
+        <v>652026</v>
       </c>
       <c r="R47" t="n">
-        <v>6673877</v>
+        <v>6673851</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6086,11 +6092,6 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Hackspår i talltorraka.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6121,10 +6122,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130685359</v>
+        <v>130684196</v>
       </c>
       <c r="B48" t="n">
-        <v>93133</v>
+        <v>57881</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6132,46 +6133,40 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5966</v>
+        <v>100049</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Dannemora-Burunge/Tensta, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>652026</v>
+        <v>652062</v>
       </c>
       <c r="R48" t="n">
-        <v>6673851</v>
+        <v>6673877</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6201,6 +6196,11 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Hackspår i talltorraka.</t>
         </is>
       </c>
       <c r="AD48" t="b">

--- a/artfynd/A 260-2025 artfynd.xlsx
+++ b/artfynd/A 260-2025 artfynd.xlsx
@@ -6012,10 +6012,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130685359</v>
+        <v>130684196</v>
       </c>
       <c r="B47" t="n">
-        <v>93133</v>
+        <v>57881</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -6023,46 +6023,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5966</v>
+        <v>100049</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Dannemora-Burunge/Tensta, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>652026</v>
+        <v>652062</v>
       </c>
       <c r="R47" t="n">
-        <v>6673851</v>
+        <v>6673877</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6092,6 +6086,11 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Hackspår i talltorraka.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6122,10 +6121,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130684196</v>
+        <v>130685359</v>
       </c>
       <c r="B48" t="n">
-        <v>57881</v>
+        <v>93133</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6133,40 +6132,46 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Dannemora-Burunge/Tensta, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>652062</v>
+        <v>652026</v>
       </c>
       <c r="R48" t="n">
-        <v>6673877</v>
+        <v>6673851</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6196,11 +6201,6 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Hackspår i talltorraka.</t>
         </is>
       </c>
       <c r="AD48" t="b">

--- a/artfynd/A 260-2025 artfynd.xlsx
+++ b/artfynd/A 260-2025 artfynd.xlsx
@@ -9656,12 +9656,7 @@
         <v>122260084</v>
       </c>
       <c r="B77" t="n">
-        <v>57537</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58043</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -10854,12 +10849,7 @@
         <v>122301026</v>
       </c>
       <c r="B87" t="n">
-        <v>57537</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58043</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -12166,12 +12156,7 @@
         <v>122301025</v>
       </c>
       <c r="B98" t="n">
-        <v>57537</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58043</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -15559,7 +15544,7 @@
         <v>127786429</v>
       </c>
       <c r="B127" t="n">
-        <v>57845</v>
+        <v>58043</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -24189,7 +24174,7 @@
         <v>128453172</v>
       </c>
       <c r="B202" t="n">
-        <v>57883</v>
+        <v>58043</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
